--- a/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_named_entities_frequency_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_named_entities_frequency_headlines.xlsx
@@ -19,11 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
   <si>
     <t>Entity</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
     <t>Wikidata_id</t>
   </si>
   <si>
@@ -63,6 +66,15 @@
     <t>Senegal</t>
   </si>
   <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>GPE</t>
+  </si>
+  <si>
+    <t>WORK_OF_ART</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q4389389</t>
   </si>
   <si>
@@ -136,6 +148,12 @@
   </si>
   <si>
     <t>parson</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>NORP</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q2940694</t>
@@ -734,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,171 +774,186 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>4389389</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2068307</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2265760</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>186356</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1537</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>22686</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>11268</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2068307</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2265760</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>186356</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1537</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1400</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>22686</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10">
+        <v>1041</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>11268</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1041</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -928,13 +961,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,207 +983,222 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
         <v>2940694</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>3541171</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1368019</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>29552</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>22686</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>165479</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>476196</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>3541171</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9">
+        <v>724</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1368019</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C10">
+        <v>755179</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>29552</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C11">
+        <v>17147602</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>22686</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>165479</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>476196</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>724</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>755179</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C12">
+        <v>955464</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>17147602</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>955464</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1158,13 +1206,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,189 +1228,210 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
         <v>439729</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>1297</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C5">
+        <v>186350</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>47544271</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>29552</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="B3">
-        <v>1297</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>186350</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>56244080</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>47544271</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>5305883</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>29552</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8">
-        <v>56244080</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10">
+        <v>1338798</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <v>5305883</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>1338798</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
         <v>24207815</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1370,13 +1439,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,189 +1461,210 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
         <v>13427002</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>179773</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>3105215</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>179773</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>252</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>2304163</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>3523016</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>1044785</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="B4">
-        <v>3105215</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>252</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6">
-        <v>2304163</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7">
-        <v>3523016</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8">
-        <v>1044785</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
+      <c r="C10">
         <v>11696</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
         <v>22686</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1582,13 +1672,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,27 +1694,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
         <v>131645</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1632,13 +1728,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,117 +1750,126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
         <v>19446</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>521098</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>22686</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3">
-        <v>521098</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>8027841</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>22686</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5">
-        <v>8027841</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7">
+      <c r="C7">
         <v>355384</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_named_entities_frequency_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_named_entities_frequency_headlines.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="319">
   <si>
     <t>Entity</t>
   </si>
@@ -39,27 +39,87 @@
     <t>Count</t>
   </si>
   <si>
+    <t>New Deal</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
     <t>Assembly (CLI)</t>
   </si>
   <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>blue economy</t>
+  </si>
+  <si>
+    <t>Green New Deal</t>
+  </si>
+  <si>
+    <t>personal name</t>
+  </si>
+  <si>
+    <t>global warming</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Oceans</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
+    <t>The Proposal</t>
+  </si>
+  <si>
     <t>Wisconsin</t>
   </si>
   <si>
     <t>Pennsylvania</t>
   </si>
   <si>
+    <t>Jobs</t>
+  </si>
+  <si>
     <t>Donald Trump</t>
   </si>
   <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Influx</t>
+  </si>
+  <si>
+    <t>Necessary</t>
+  </si>
+  <si>
     <t>United States Congress</t>
   </si>
   <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>full stop</t>
+  </si>
+  <si>
     <t>Evers</t>
   </si>
   <si>
+    <t>world</t>
+  </si>
+  <si>
     <t>ORG</t>
   </si>
   <si>
@@ -72,66 +132,354 @@
     <t>PERSON</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q186356</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q9430</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q4389389</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q7937</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q3738312</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2068307</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1071027</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7942</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q650711</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7401</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q193538</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q18162891</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q577</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q108586</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q1537</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q1400</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q392825</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q22686</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q53736577</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q33659</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q6030321</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q3394430</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q11268</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q1041</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q172008</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q21453564</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q16502</t>
+  </si>
+  <si>
+    <t>NEW DEAL</t>
+  </si>
+  <si>
     <t>Assembly</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>climate change</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>OCEANS</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Proposal</t>
+  </si>
+  <si>
     <t>Trump</t>
   </si>
   <si>
+    <t>BORDER</t>
+  </si>
+  <si>
+    <t>PEOPLE</t>
+  </si>
+  <si>
+    <t>INFLUX</t>
+  </si>
+  <si>
+    <t>NECESSARY</t>
+  </si>
+  <si>
     <t>CONGRESS</t>
   </si>
   <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Citizen Watch</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Democratic Party</t>
+  </si>
+  <si>
+    <t>presidency</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>MiG-19</t>
+  </si>
+  <si>
+    <t>federal funds</t>
+  </si>
+  <si>
+    <t>Millions</t>
+  </si>
+  <si>
+    <t>Agir</t>
+  </si>
+  <si>
     <t>Saint Patrick</t>
   </si>
   <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
     <t>Clarence A. Bain Airport</t>
   </si>
   <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>People's Liberation Army Navy</t>
+  </si>
+  <si>
+    <t>PHASE</t>
+  </si>
+  <si>
+    <t>parson</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Election</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Pandemic</t>
+  </si>
+  <si>
     <t>DATE</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q2940694</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q178095</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1368019</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q45650</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q29552</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q3558349</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7315950</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q153307</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2012704</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1854561</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q43807777</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q165479</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q2701586</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1454090</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q3274509</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q724</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q23001045</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1931144</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q755179</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q17147602</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q955464</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q19866399</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1206261</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q652586</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q531592</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Citizen</t>
+  </si>
+  <si>
+    <t>Democrats</t>
+  </si>
+  <si>
+    <t>Farmers</t>
+  </si>
+  <si>
+    <t>Federal Funds</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
     <t>Patrick</t>
   </si>
   <si>
+    <t>Reasons</t>
+  </si>
+  <si>
     <t>MAY</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>STRONG</t>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>PARSON</t>
+  </si>
+  <si>
+    <t>Policies</t>
+  </si>
+  <si>
+    <t>Elections</t>
+  </si>
+  <si>
     <t>Rick Scott</t>
   </si>
   <si>
     <t>2012 VP113</t>
   </si>
   <si>
+    <t>Crisis</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>health crisis</t>
+  </si>
+  <si>
     <t>gun violence</t>
   </si>
   <si>
@@ -141,15 +489,30 @@
     <t>Liberal</t>
   </si>
   <si>
+    <t>Seniors</t>
+  </si>
+  <si>
     <t>United States of America</t>
   </si>
   <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Road Trip</t>
+  </si>
+  <si>
     <t>Episodes</t>
   </si>
   <si>
     <t>Heritage</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Pelosi</t>
   </si>
   <si>
@@ -162,30 +525,51 @@
     <t>Payback</t>
   </si>
   <si>
+    <t>Freedom</t>
+  </si>
+  <si>
     <t>black list</t>
   </si>
   <si>
     <t>mother!</t>
   </si>
   <si>
+    <t>God the Father</t>
+  </si>
+  <si>
     <t>The Notorious B.I.G.</t>
   </si>
   <si>
     <t>DeSantis</t>
   </si>
   <si>
+    <t>United States executive order</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>The Package</t>
+  </si>
+  <si>
     <t>Hinson</t>
   </si>
   <si>
     <t>debt limit</t>
   </si>
   <si>
+    <t>Manchester City F.C.</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
     <t>Ontario</t>
   </si>
   <si>
-    <t>Democratic Party</t>
-  </si>
-  <si>
     <t>NORP</t>
   </si>
   <si>
@@ -195,6 +579,15 @@
     <t>https://www.wikidata.org/wiki/Q15980607</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q5185942</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q572173</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q3002774</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q5618454</t>
   </si>
   <si>
@@ -204,15 +597,30 @@
     <t>https://www.wikidata.org/wiki/Q1003630</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q7450764</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q30</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q41263</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7927797</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q841515</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q1164742</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q18626</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q482891</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q47544271</t>
   </si>
   <si>
@@ -225,33 +633,57 @@
     <t>https://www.wikidata.org/wiki/Q279057</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q28871602</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q632959</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q25339558</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q186350</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q179157</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q56244080</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q1338798</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7136816</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q55635445</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q5305883</t>
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q18391705</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q50602</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q483980</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1297</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q1904</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q29552</t>
-  </si>
-  <si>
     <t>Biden</t>
   </si>
   <si>
+    <t>Public Health Crisis</t>
+  </si>
+  <si>
     <t>Gun Violence</t>
   </si>
   <si>
@@ -261,6 +693,9 @@
     <t>America</t>
   </si>
   <si>
+    <t>Budget</t>
+  </si>
+  <si>
     <t>Fitzgerald</t>
   </si>
   <si>
@@ -273,16 +708,37 @@
     <t>MOTHER</t>
   </si>
   <si>
+    <t>FATHER</t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
+    <t>Executive Order</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
     <t>Debt Limit</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>ON</t>
   </si>
   <si>
-    <t>Democrats</t>
+    <t>special session</t>
+  </si>
+  <si>
+    <t>Proof</t>
+  </si>
+  <si>
+    <t>report card</t>
+  </si>
+  <si>
+    <t>fad</t>
   </si>
   <si>
     <t>Children</t>
@@ -297,6 +753,21 @@
     <t>Ron DeSantis</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Arrest</t>
+  </si>
+  <si>
+    <t>Governor</t>
+  </si>
+  <si>
+    <t>Transportation Security Administration</t>
+  </si>
+  <si>
+    <t>lawmaking</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -306,6 +777,30 @@
     <t>state of the United States</t>
   </si>
   <si>
+    <t>President of the United States</t>
+  </si>
+  <si>
+    <t>The Statement</t>
+  </si>
+  <si>
+    <t>Incompetence</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7574869</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q314597</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2251881</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q13427002</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q2606509</t>
   </si>
   <si>
@@ -318,6 +813,21 @@
     <t>https://www.wikidata.org/wiki/Q3105215</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q252</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q30733</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q3774002</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2304163</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1725430</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q3523016</t>
   </si>
   <si>
@@ -327,15 +837,90 @@
     <t>https://www.wikidata.org/wiki/Q35657</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q11696</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1272835</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q6015158</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q48282</t>
+  </si>
+  <si>
+    <t>SPECIAL SESSION</t>
+  </si>
+  <si>
+    <t>Report Card</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GOVERNOR</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>Legislation</t>
+  </si>
+  <si>
     <t>BBB</t>
   </si>
   <si>
     <t>States of America</t>
   </si>
   <si>
+    <t>President of the United States of America</t>
+  </si>
+  <si>
     <t>Donald J. Trump</t>
   </si>
   <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>INCOMPETENCE</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Romanian leu</t>
+  </si>
+  <si>
+    <t>Event Communications</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q11081</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q131645</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q69692708</t>
+  </si>
+  <si>
+    <t>DESANTIS</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
     <t>Blackburn Rovers F.C.</t>
   </si>
   <si>
@@ -348,6 +933,15 @@
     <t>Crime</t>
   </si>
   <si>
+    <t>Witch Hunt</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Gary Glitter</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q19446</t>
   </si>
   <si>
@@ -360,6 +954,15 @@
     <t>https://www.wikidata.org/wiki/Q3697152</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q8027841</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q7233186</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q355384</t>
+  </si>
+  <si>
     <t>Blackburn</t>
   </si>
   <si>
@@ -367,6 +970,12 @@
   </si>
   <si>
     <t>Public</t>
+  </si>
+  <si>
+    <t>President Donald J. Trump</t>
+  </si>
+  <si>
+    <t>Leader</t>
   </si>
 </sst>
 </file>
@@ -737,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -767,40 +1376,34 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2">
-        <v>4389389</v>
+        <v>186356</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3">
-        <v>577</v>
+        <v>9430</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -808,16 +1411,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>1537</v>
+        <v>4389389</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -827,14 +1430,11 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5">
-        <v>1400</v>
+        <v>7937</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -847,17 +1447,14 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6">
-        <v>22686</v>
+        <v>3738312</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -867,17 +1464,14 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7">
-        <v>11268</v>
+        <v>2068307</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -887,297 +1481,14 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8">
-        <v>21453564</v>
+        <v>1071027</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>22686</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>165479</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>3274509</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>439729</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>15980607</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>5618454</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>583725</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1003630</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1164742</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1185,19 +1496,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>18626</v>
+        <v>7942</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1205,19 +1513,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>47544271</v>
+        <v>650711</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1225,19 +1530,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>532457</v>
+        <v>7401</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1245,19 +1547,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>5227901</v>
+        <v>193538</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1265,19 +1564,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>279057</v>
+        <v>18162891</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1285,19 +1581,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>632959</v>
+        <v>577</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1305,19 +1601,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>25339558</v>
+        <v>108586</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1325,19 +1618,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>179157</v>
+        <v>1537</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1345,19 +1638,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>56244080</v>
+        <v>1400</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1365,19 +1658,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>5305883</v>
+        <v>392825</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1385,19 +1675,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>18391705</v>
+        <v>22686</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
         <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1405,19 +1695,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>1904</v>
+        <v>53736577</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
         <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1425,21 +1712,143 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>29552</v>
+        <v>33659</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>6030321</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>3394430</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>11268</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>1041</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>172008</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>21453564</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>16502</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
@@ -1465,12 +1874,1896 @@
     <hyperlink ref="D19" r:id="rId18"/>
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>2940694</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>178095</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>1368019</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>45650</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>29552</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>3558349</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>22686</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>7315950</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>153307</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>2012704</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>1854561</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>43807777</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>165479</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>2701586</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16">
+        <v>1454090</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>3274509</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>724</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>23001045</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20">
+        <v>1931144</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>755179</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>17147602</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>955464</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>19866399</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25">
+        <v>1206261</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <v>652586</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>531592</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>439729</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>15980607</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>5185942</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>572173</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6">
+        <v>3002774</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>5618454</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>583725</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>1003630</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10">
+        <v>7450764</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12">
+        <v>41263</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13">
+        <v>7927797</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14">
+        <v>841515</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>1164742</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>18626</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17">
+        <v>482891</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>47544271</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>532457</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>5227901</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>279057</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22">
+        <v>28871602</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>632959</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>25339558</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25">
+        <v>186350</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>179157</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>56244080</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28">
+        <v>1338798</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29">
+        <v>7136816</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30">
+        <v>55635445</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>5305883</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>18391705</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33">
+        <v>50602</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34">
+        <v>483980</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35">
+        <v>1297</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>1904</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37">
+        <v>29552</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2">
+        <v>7574869</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3">
+        <v>314597</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4">
+        <v>2251881</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>193538</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6">
+        <v>13427002</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1537</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>2606509</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>53736577</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>179773</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>568555</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>3105215</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13">
+        <v>252</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14">
+        <v>30733</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15">
+        <v>3774002</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16">
+        <v>2304163</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17">
+        <v>1725430</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>3523016</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>1044785</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>35657</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22">
+        <v>11696</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>22686</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24">
+        <v>1272835</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25">
+        <v>6015158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26">
+        <v>48282</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>56244080</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3">
+        <v>11081</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4">
+        <v>131645</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5">
+        <v>69692708</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1500,19 +3793,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>1537</v>
+        <v>19446</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>314</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1520,19 +3813,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>2606509</v>
+        <v>521098</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1540,19 +3833,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>179773</v>
+        <v>47010022</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1560,19 +3853,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>568555</v>
+        <v>3697152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>310</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1580,19 +3873,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="C6">
-        <v>3105215</v>
+        <v>1272835</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1600,19 +3890,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>3523016</v>
+        <v>22686</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>317</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1620,19 +3907,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="C8">
-        <v>1044785</v>
+        <v>8027841</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1640,19 +3924,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>7233186</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1660,19 +3941,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C10">
-        <v>35657</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1680,19 +3958,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="C11">
-        <v>22686</v>
+        <v>355384</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1713,156 +3988,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>19446</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>521098</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>47010022</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>3697152</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>